--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-13_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-13_end.xlsx
@@ -1772,7 +1772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Ruins of Chernobog "District 14"
+    <t xml:space="preserve">Ruins of Chernobog 'District 14'
 </t>
   </si>
   <si>
@@ -2064,7 +2064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  They're not. This was once the cloak of the "Patriot." I wove it into a coat.
+    <t xml:space="preserve">[name="FrostNova"]  They're not. This was once the cloak of the 'Patriot.' I wove it into a coat.
 </t>
   </si>
   <si>
